--- a/output/OCCAM_17162002000180.xlsx
+++ b/output/OCCAM_17162002000180.xlsx
@@ -1439,10 +1439,10 @@
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>1.85269028</v>
+        <v>1.86368732</v>
       </c>
       <c r="C96">
-        <v>-0.006976906489958079</v>
+        <v>-0.003148830670856695</v>
       </c>
     </row>
   </sheetData>

--- a/output/OCCAM_17162002000180.xlsx
+++ b/output/OCCAM_17162002000180.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>OCCAM RETORNO ABSOLUTO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1063 +383,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41305</v>
       </c>
       <c r="B2">
-        <v>0.01610753999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41333</v>
       </c>
       <c r="B3">
-        <v>0.03802310999999992</v>
-      </c>
-      <c r="C3">
         <v>0.02156816000007233</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41364</v>
       </c>
       <c r="B4">
-        <v>0.04398893999999998</v>
-      </c>
-      <c r="C4">
         <v>0.005747299787959514</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41394</v>
       </c>
       <c r="B5">
-        <v>0.04409237999999993</v>
-      </c>
-      <c r="C5">
         <v>9.908150942661287e-05</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41425</v>
       </c>
       <c r="B6">
-        <v>0.08757978999999994</v>
-      </c>
-      <c r="C6">
         <v>0.04165092173165741</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41455</v>
       </c>
       <c r="B7">
-        <v>0.15190525</v>
-      </c>
-      <c r="C7">
         <v>0.05914550876308589</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41486</v>
       </c>
       <c r="B8">
-        <v>0.16958735</v>
-      </c>
-      <c r="C8">
         <v>0.01535030767504542</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41517</v>
       </c>
       <c r="B9">
-        <v>0.1321367899999999</v>
-      </c>
-      <c r="C9">
         <v>-0.03202031896121327</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41547</v>
       </c>
       <c r="B10">
-        <v>0.11321979</v>
-      </c>
-      <c r="C10">
         <v>-0.01670911162598987</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41578</v>
       </c>
       <c r="B11">
-        <v>0.1310397700000001</v>
-      </c>
-      <c r="C11">
         <v>0.01600760259571032</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41608</v>
       </c>
       <c r="B12">
-        <v>0.1790040799999999</v>
-      </c>
-      <c r="C12">
         <v>0.04240727096625418</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41639</v>
       </c>
       <c r="B13">
-        <v>0.1634864499999999</v>
-      </c>
-      <c r="C13">
         <v>-0.01316164232442685</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41670</v>
       </c>
       <c r="B14">
-        <v>0.1612239099999999</v>
-      </c>
-      <c r="C14">
         <v>-0.001944620841953126</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41698</v>
       </c>
       <c r="B15">
-        <v>0.18661997</v>
-      </c>
-      <c r="C15">
         <v>0.02187008016395398</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41729</v>
       </c>
       <c r="B16">
-        <v>0.2028156999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01364862416734813</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41759</v>
       </c>
       <c r="B17">
-        <v>0.204342</v>
-      </c>
-      <c r="C17">
         <v>0.001268939206563457</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41790</v>
       </c>
       <c r="B18">
-        <v>0.25078629</v>
-      </c>
-      <c r="C18">
         <v>0.03856403745779846</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41820</v>
       </c>
       <c r="B19">
-        <v>0.28866144</v>
-      </c>
-      <c r="C19">
         <v>0.03028107223656895</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41851</v>
       </c>
       <c r="B20">
-        <v>0.2596205700000001</v>
-      </c>
-      <c r="C20">
         <v>-0.02253568633201286</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41882</v>
       </c>
       <c r="B21">
-        <v>0.3228791499999999</v>
-      </c>
-      <c r="C21">
         <v>0.05022034532192476</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41912</v>
       </c>
       <c r="B22">
-        <v>0.28217984</v>
-      </c>
-      <c r="C22">
         <v>-0.03076570524223621</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41943</v>
       </c>
       <c r="B23">
-        <v>0.2914843300000001</v>
-      </c>
-      <c r="C23">
         <v>0.007256774525483234</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41973</v>
       </c>
       <c r="B24">
-        <v>0.3528003099999999</v>
-      </c>
-      <c r="C24">
         <v>0.04747713818564092</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42004</v>
       </c>
       <c r="B25">
-        <v>0.3796829500000001</v>
-      </c>
-      <c r="C25">
         <v>0.01987184642203421</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42035</v>
       </c>
       <c r="B26">
-        <v>0.33865945</v>
-      </c>
-      <c r="C26">
         <v>-0.02973400519300473</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42063</v>
       </c>
       <c r="B27">
-        <v>0.3890843900000001</v>
-      </c>
-      <c r="C27">
         <v>0.03766823593558466</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42094</v>
       </c>
       <c r="B28">
-        <v>0.4681829900000001</v>
-      </c>
-      <c r="C28">
         <v>0.05694297666105075</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42124</v>
       </c>
       <c r="B29">
-        <v>0.45525069</v>
-      </c>
-      <c r="C29">
         <v>-0.008808370678644151</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42155</v>
       </c>
       <c r="B30">
-        <v>0.4635673300000001</v>
-      </c>
-      <c r="C30">
         <v>0.005714919125034079</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42185</v>
       </c>
       <c r="B31">
-        <v>0.48599284</v>
-      </c>
-      <c r="C31">
         <v>0.0153224997171808</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42216</v>
       </c>
       <c r="B32">
-        <v>0.58237384</v>
-      </c>
-      <c r="C32">
         <v>0.064859666483992</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42247</v>
       </c>
       <c r="B33">
-        <v>0.58196567</v>
-      </c>
-      <c r="C33">
         <v>-0.0002579478942852376</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42277</v>
       </c>
       <c r="B34">
-        <v>0.6518231800000001</v>
-      </c>
-      <c r="C34">
         <v>0.04415867633840631</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42308</v>
       </c>
       <c r="B35">
-        <v>0.5797439799999999</v>
-      </c>
-      <c r="C35">
         <v>-0.04363614754455747</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42338</v>
       </c>
       <c r="B36">
-        <v>0.62827689</v>
-      </c>
-      <c r="C36">
         <v>0.03072200977781225</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42369</v>
       </c>
       <c r="B37">
-        <v>0.6769902999999999</v>
-      </c>
-      <c r="C37">
         <v>0.02991715370964942</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42400</v>
       </c>
       <c r="B38">
-        <v>0.6854515000000001</v>
-      </c>
-      <c r="C38">
         <v>0.005045467466329612</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42429</v>
       </c>
       <c r="B39">
-        <v>0.67105617</v>
-      </c>
-      <c r="C39">
         <v>-0.008540933987124633</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42460</v>
       </c>
       <c r="B40">
-        <v>0.6404340799999999</v>
-      </c>
-      <c r="C40">
         <v>-0.01832499143341182</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42490</v>
       </c>
       <c r="B41">
-        <v>0.6779077200000001</v>
-      </c>
-      <c r="C41">
         <v>0.02284373414139274</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42521</v>
       </c>
       <c r="B42">
-        <v>0.6873174900000001</v>
-      </c>
-      <c r="C42">
         <v>0.005608037848469971</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42551</v>
       </c>
       <c r="B43">
-        <v>0.70892464</v>
-      </c>
-      <c r="C43">
         <v>0.01280562201722923</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42582</v>
       </c>
       <c r="B44">
-        <v>0.7246720499999999</v>
-      </c>
-      <c r="C44">
         <v>0.009214806569820322</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42613</v>
       </c>
       <c r="B45">
-        <v>0.7297737200000001</v>
-      </c>
-      <c r="C45">
         <v>0.002958052227958419</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42643</v>
       </c>
       <c r="B46">
-        <v>0.73346888</v>
-      </c>
-      <c r="C46">
         <v>0.002136210047173126</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42674</v>
       </c>
       <c r="B47">
-        <v>0.80732713</v>
-      </c>
-      <c r="C47">
         <v>0.04260719696335125</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42704</v>
       </c>
       <c r="B48">
-        <v>0.8175504099999999</v>
-      </c>
-      <c r="C48">
         <v>0.00565657419196719</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42735</v>
       </c>
       <c r="B49">
-        <v>0.8214775299999999</v>
-      </c>
-      <c r="C49">
         <v>0.002160666344324325</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42766</v>
       </c>
       <c r="B50">
-        <v>0.8801553600000001</v>
-      </c>
-      <c r="C50">
         <v>0.03221441331752262</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42794</v>
       </c>
       <c r="B51">
-        <v>0.9193701700000001</v>
-      </c>
-      <c r="C51">
         <v>0.02085721788437733</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42825</v>
       </c>
       <c r="B52">
-        <v>0.9405485499999999</v>
-      </c>
-      <c r="C52">
         <v>0.01103402581274859</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42855</v>
       </c>
       <c r="B53">
-        <v>0.9432685199999999</v>
-      </c>
-      <c r="C53">
         <v>0.001401650064359439</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42886</v>
       </c>
       <c r="B54">
-        <v>0.91225771</v>
-      </c>
-      <c r="C54">
         <v>-0.01595806739050143</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42916</v>
       </c>
       <c r="B55">
-        <v>0.9302012399999999</v>
-      </c>
-      <c r="C55">
         <v>0.009383426672129769</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42947</v>
       </c>
       <c r="B56">
-        <v>0.9566782</v>
-      </c>
-      <c r="C56">
         <v>0.01371720183953462</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42978</v>
       </c>
       <c r="B57">
-        <v>0.97543749</v>
-      </c>
-      <c r="C57">
         <v>0.009587314868638064</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43008</v>
       </c>
       <c r="B58">
-        <v>1.02866067</v>
-      </c>
-      <c r="C58">
         <v>0.02694247743571965</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43039</v>
       </c>
       <c r="B59">
-        <v>1.03466999</v>
-      </c>
-      <c r="C59">
         <v>0.00296221053075385</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43069</v>
       </c>
       <c r="B60">
-        <v>1.01841642</v>
-      </c>
-      <c r="C60">
         <v>-0.007988307725519617</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43100</v>
       </c>
       <c r="B61">
-        <v>1.03507997</v>
-      </c>
-      <c r="C61">
         <v>0.00825575428087344</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43131</v>
       </c>
       <c r="B62">
-        <v>1.13491049</v>
-      </c>
-      <c r="C62">
         <v>0.04905483886218009</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43159</v>
       </c>
       <c r="B63">
-        <v>1.13518887</v>
-      </c>
-      <c r="C63">
         <v>0.0001303942255674873</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43190</v>
       </c>
       <c r="B64">
-        <v>1.15908378</v>
-      </c>
-      <c r="C64">
         <v>0.01119100531841943</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43220</v>
       </c>
       <c r="B65">
-        <v>1.16479608</v>
-      </c>
-      <c r="C65">
         <v>0.002645705577946522</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43251</v>
       </c>
       <c r="B66">
-        <v>1.11017164</v>
-      </c>
-      <c r="C66">
         <v>-0.02523306490835853</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43281</v>
       </c>
       <c r="B67">
-        <v>1.14133799</v>
-      </c>
-      <c r="C67">
         <v>0.01476958054464239</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43312</v>
       </c>
       <c r="B68">
-        <v>1.17681004</v>
-      </c>
-      <c r="C68">
         <v>0.01656536715159107</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43343</v>
       </c>
       <c r="B69">
-        <v>1.20861919</v>
-      </c>
-      <c r="C69">
         <v>0.01461273579939926</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43373</v>
       </c>
       <c r="B70">
-        <v>1.24803798</v>
-      </c>
-      <c r="C70">
         <v>0.01784770782508693</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43404</v>
       </c>
       <c r="B71">
-        <v>1.29072878</v>
-      </c>
-      <c r="C71">
         <v>0.01899024855443043</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43434</v>
       </c>
       <c r="B72">
-        <v>1.26632073</v>
-      </c>
-      <c r="C72">
         <v>-0.01065514617579477</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43465</v>
       </c>
       <c r="B73">
-        <v>1.32372675</v>
-      </c>
-      <c r="C73">
         <v>0.02533005114417319</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43496</v>
       </c>
       <c r="B74">
-        <v>1.38881737</v>
-      </c>
-      <c r="C74">
         <v>0.02801130554614484</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43524</v>
       </c>
       <c r="B75">
-        <v>1.38250045</v>
-      </c>
-      <c r="C75">
         <v>-0.002644371260578926</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43555</v>
       </c>
       <c r="B76">
-        <v>1.38763276</v>
-      </c>
-      <c r="C76">
         <v>0.002154169582633036</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43585</v>
       </c>
       <c r="B77">
-        <v>1.39842327</v>
-      </c>
-      <c r="C77">
         <v>0.004519334036948042</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43616</v>
       </c>
       <c r="B78">
-        <v>1.42835921</v>
-      </c>
-      <c r="C78">
         <v>0.01248150832025585</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43646</v>
       </c>
       <c r="B79">
-        <v>1.47244876</v>
-      </c>
-      <c r="C79">
         <v>0.0181561071436378</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43677</v>
       </c>
       <c r="B80">
-        <v>1.56324583</v>
-      </c>
-      <c r="C80">
         <v>0.03672353962150465</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43708</v>
       </c>
       <c r="B81">
-        <v>1.61757026</v>
-      </c>
-      <c r="C81">
         <v>0.02119360904217293</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43738</v>
       </c>
       <c r="B82">
-        <v>1.63461244</v>
-      </c>
-      <c r="C82">
         <v>0.006510686746570959</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43769</v>
       </c>
       <c r="B83">
-        <v>1.66298324</v>
-      </c>
-      <c r="C83">
         <v>0.01076849086767373</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43799</v>
       </c>
       <c r="B84">
-        <v>1.61676403</v>
-      </c>
-      <c r="C84">
         <v>-0.01735617757774544</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43830</v>
       </c>
       <c r="B85">
-        <v>1.66641237</v>
-      </c>
-      <c r="C85">
         <v>0.01897318192653397</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43861</v>
       </c>
       <c r="B86">
-        <v>1.70014911</v>
-      </c>
-      <c r="C86">
         <v>0.01265248405669506</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43890</v>
       </c>
       <c r="B87">
-        <v>1.68960755</v>
-      </c>
-      <c r="C87">
         <v>-0.003904065875828588</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43921</v>
       </c>
       <c r="B88">
-        <v>1.69070903</v>
-      </c>
-      <c r="C88">
         <v>0.0004095318664614211</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43951</v>
       </c>
       <c r="B89">
-        <v>1.72186778</v>
-      </c>
-      <c r="C89">
         <v>0.01158012614987225</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43982</v>
       </c>
       <c r="B90">
-        <v>1.75470049</v>
-      </c>
-      <c r="C90">
         <v>0.01206256609569767</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44012</v>
       </c>
       <c r="B91">
-        <v>1.78456168</v>
-      </c>
-      <c r="C91">
         <v>0.01084008592164598</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44043</v>
       </c>
       <c r="B92">
-        <v>1.85175358</v>
-      </c>
-      <c r="C92">
         <v>0.02413015322397172</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44074</v>
       </c>
       <c r="B93">
-        <v>1.91901612</v>
-      </c>
-      <c r="C93">
         <v>0.0235863787361319</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44104</v>
       </c>
       <c r="B94">
-        <v>1.86431802</v>
-      </c>
-      <c r="C94">
         <v>-0.01873853988857055</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44135</v>
       </c>
       <c r="B95">
-        <v>1.87273307</v>
-      </c>
-      <c r="C95">
         <v>0.002937889557389495</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>1.86368732</v>
-      </c>
-      <c r="C96">
-        <v>-0.003148830670856695</v>
+        <v>-0.004979317483193912</v>
       </c>
     </row>
   </sheetData>
